--- a/prices_database_2.xlsx
+++ b/prices_database_2.xlsx
@@ -914,10 +914,10 @@
         <v>0.24</v>
       </c>
       <c r="O4">
+        <v>11.55</v>
+      </c>
+      <c r="P4">
         <v>13.86</v>
-      </c>
-      <c r="P4">
-        <v>11.55</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>77</v>
@@ -1252,10 +1252,10 @@
         <v>30</v>
       </c>
       <c r="O11">
+        <v>152.17</v>
+      </c>
+      <c r="P11">
         <v>182.6</v>
-      </c>
-      <c r="P11">
-        <v>152.17</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1399,10 +1399,10 @@
         <v>60</v>
       </c>
       <c r="O14">
+        <v>156.79</v>
+      </c>
+      <c r="P14">
         <v>188.15</v>
-      </c>
-      <c r="P14">
-        <v>156.79</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>87</v>
@@ -1440,10 +1440,10 @@
         <v>0.24</v>
       </c>
       <c r="O15">
+        <v>13.97</v>
+      </c>
+      <c r="P15">
         <v>16.76</v>
-      </c>
-      <c r="P15">
-        <v>13.97</v>
       </c>
       <c r="R15" s="2" t="s">
         <v>88</v>
@@ -1475,10 +1475,10 @@
         <v>0.286</v>
       </c>
       <c r="O16">
+        <v>41.47</v>
+      </c>
+      <c r="P16">
         <v>49.76</v>
-      </c>
-      <c r="P16">
-        <v>41.47</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1836,10 +1836,10 @@
         <v>74</v>
       </c>
       <c r="O24">
+        <v>19.06</v>
+      </c>
+      <c r="P24">
         <v>22.87</v>
-      </c>
-      <c r="P24">
-        <v>19.06</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>73</v>
       </c>
       <c r="O39">
+        <v>103.8</v>
+      </c>
+      <c r="P39">
         <v>86.5</v>
-      </c>
-      <c r="P39">
-        <v>103.8</v>
       </c>
       <c r="R39" s="2" t="s">
         <v>112</v>
@@ -2745,10 +2745,10 @@
         <v>30</v>
       </c>
       <c r="O45">
+        <v>63.01</v>
+      </c>
+      <c r="P45">
         <v>75.61</v>
-      </c>
-      <c r="P45">
-        <v>63.01</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -2948,10 +2948,10 @@
         <v>30</v>
       </c>
       <c r="O49">
+        <v>140.03</v>
+      </c>
+      <c r="P49">
         <v>168.04</v>
-      </c>
-      <c r="P49">
-        <v>140.03</v>
       </c>
       <c r="Q49">
         <v>0</v>
